--- a/00. Misc/05. আমদানী নিয়ন্ত্রিত গাড়ীর তালিকা/আমদানী নিয়ন্ত্রিত গাড়ির তালিকা.xlsx
+++ b/00. Misc/05. আমদানী নিয়ন্ত্রিত গাড়ীর তালিকা/আমদানী নিয়ন্ত্রিত গাড়ির তালিকা.xlsx
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
